--- a/Data_inputs/NCTSERS_MemberData_AV2016.xlsx
+++ b/Data_inputs/NCTSERS_MemberData_AV2016.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="770" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="770" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="20" r:id="rId1"/>
@@ -786,7 +786,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0;&quot;$&quot;\-#,##0"/>
@@ -1597,7 +1597,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1759,23 +1759,23 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" location="'Sum'!A1" display="Sum" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B3" location="'Actives_t1'!A1" display="Actives_t1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B4" location="'Actives_t2'!A1" display="Actives_t2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B5" location="'Actives_t3'!A1" display="Actives_t3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B6" location="'Actives_t4'!A1" display="Actives_t4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B7" location="'Actives_t5_noHPP'!A1" display="Actives_t5_noHPP" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B8" location="'Actives_t6_noHPP'!A1" display="Actives_t6_noHPP" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="B9" location="'Actives_t5_HPP'!A1" display="Actives_t5_HPP" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B10" location="'Actives_t6_HPP'!A1" display="Actives_t6_HPP" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="B11" location="'Other_t1'!A1" display="Other_t1" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="B12" location="'Other_t2'!A1" display="Other_t2" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="B13" location="'Other_t3'!A1" display="Other_t3" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="B14" location="'Other_t4'!A1" display="Other_t4" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="B15" location="'Other_t5_noHPP'!A1" display="Other_t5_noHPP" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="B16" location="'Other_t6_noHPP'!A1" display="Other_t6_noHPP" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="B17" location="'Other_t5_HPP'!A1" display="Other_t5_HPP" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="B18" location="'Other_t6_HPP'!A1" display="Other_t6_HPP" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B2" location="'Sum'!A1" display="Sum"/>
+    <hyperlink ref="B3" location="'Actives_t1'!A1" display="Actives_t1"/>
+    <hyperlink ref="B4" location="'Actives_t2'!A1" display="Actives_t2"/>
+    <hyperlink ref="B5" location="'Actives_t3'!A1" display="Actives_t3"/>
+    <hyperlink ref="B6" location="'Actives_t4'!A1" display="Actives_t4"/>
+    <hyperlink ref="B7" location="'Actives_t5_noHPP'!A1" display="Actives_t5_noHPP"/>
+    <hyperlink ref="B8" location="'Actives_t6_noHPP'!A1" display="Actives_t6_noHPP"/>
+    <hyperlink ref="B9" location="'Actives_t5_HPP'!A1" display="Actives_t5_HPP"/>
+    <hyperlink ref="B10" location="'Actives_t6_HPP'!A1" display="Actives_t6_HPP"/>
+    <hyperlink ref="B11" location="'Other_t1'!A1" display="Other_t1"/>
+    <hyperlink ref="B12" location="'Other_t2'!A1" display="Other_t2"/>
+    <hyperlink ref="B13" location="'Other_t3'!A1" display="Other_t3"/>
+    <hyperlink ref="B14" location="'Other_t4'!A1" display="Other_t4"/>
+    <hyperlink ref="B15" location="'Other_t5_noHPP'!A1" display="Other_t5_noHPP"/>
+    <hyperlink ref="B16" location="'Other_t6_noHPP'!A1" display="Other_t6_noHPP"/>
+    <hyperlink ref="B17" location="'Other_t5_HPP'!A1" display="Other_t5_HPP"/>
+    <hyperlink ref="B18" location="'Other_t6_HPP'!A1" display="Other_t6_HPP"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1783,7 +1783,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4050,14 +4050,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4217,14 +4217,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6154,14 +6154,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6548,7 +6548,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6556,11 +6556,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:N30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7259,7 +7259,7 @@
         <v>31</v>
       </c>
       <c r="E22" s="43">
-        <v>33972.585522991409</v>
+        <v>33972.585522991401</v>
       </c>
       <c r="F22" s="43">
         <v>43485</v>
@@ -7622,16 +7622,54 @@
         <v>89392</v>
       </c>
     </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E31" s="13">
+        <f>SUM(E9,E11,E13,E15,E17,E19,E21,E23,E25,E27,E29)</f>
+        <v>93918</v>
+      </c>
+      <c r="F31" s="13">
+        <f t="shared" ref="F31:M31" si="9">SUM(F9,F11,F13,F15,F17,F19,F21,F23,F25,F27,F29)</f>
+        <v>57938</v>
+      </c>
+      <c r="G31" s="13">
+        <f t="shared" si="9"/>
+        <v>59082</v>
+      </c>
+      <c r="H31" s="13">
+        <f t="shared" si="9"/>
+        <v>43280</v>
+      </c>
+      <c r="I31" s="13">
+        <f t="shared" si="9"/>
+        <v>28494</v>
+      </c>
+      <c r="J31" s="13">
+        <f t="shared" si="9"/>
+        <v>16169</v>
+      </c>
+      <c r="K31" s="13">
+        <f t="shared" si="9"/>
+        <v>4565</v>
+      </c>
+      <c r="L31" s="13">
+        <f t="shared" si="9"/>
+        <v>1129</v>
+      </c>
+      <c r="M31" s="13">
+        <f t="shared" si="9"/>
+        <v>438</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8977,14 +9015,14 @@
     <row r="34" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D87"/>
   <sheetViews>
     <sheetView topLeftCell="A52" workbookViewId="0">
@@ -10151,14 +10189,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L91"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -13524,14 +13562,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F88"/>
   <sheetViews>
     <sheetView topLeftCell="A55" workbookViewId="0">
@@ -14727,14 +14765,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M102"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -18569,7 +18607,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -18577,11 +18615,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19549,7 +19587,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data_inputs/NCTSERS_MemberData_AV2016.xlsx
+++ b/Data_inputs/NCTSERS_MemberData_AV2016.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EF53EFBB-383A-4DED-BF40-DA97A6F72668}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="770" activeTab="2"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="770" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="20" r:id="rId1"/>
@@ -20,7 +21,7 @@
     <sheet name="Beneficiaries" sheetId="31" r:id="rId11"/>
     <sheet name="Actives_gender" sheetId="40" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -786,7 +787,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0;&quot;$&quot;\-#,##0"/>
@@ -1597,7 +1598,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1759,23 +1760,23 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" location="'Sum'!A1" display="Sum"/>
-    <hyperlink ref="B3" location="'Actives_t1'!A1" display="Actives_t1"/>
-    <hyperlink ref="B4" location="'Actives_t2'!A1" display="Actives_t2"/>
-    <hyperlink ref="B5" location="'Actives_t3'!A1" display="Actives_t3"/>
-    <hyperlink ref="B6" location="'Actives_t4'!A1" display="Actives_t4"/>
-    <hyperlink ref="B7" location="'Actives_t5_noHPP'!A1" display="Actives_t5_noHPP"/>
-    <hyperlink ref="B8" location="'Actives_t6_noHPP'!A1" display="Actives_t6_noHPP"/>
-    <hyperlink ref="B9" location="'Actives_t5_HPP'!A1" display="Actives_t5_HPP"/>
-    <hyperlink ref="B10" location="'Actives_t6_HPP'!A1" display="Actives_t6_HPP"/>
-    <hyperlink ref="B11" location="'Other_t1'!A1" display="Other_t1"/>
-    <hyperlink ref="B12" location="'Other_t2'!A1" display="Other_t2"/>
-    <hyperlink ref="B13" location="'Other_t3'!A1" display="Other_t3"/>
-    <hyperlink ref="B14" location="'Other_t4'!A1" display="Other_t4"/>
-    <hyperlink ref="B15" location="'Other_t5_noHPP'!A1" display="Other_t5_noHPP"/>
-    <hyperlink ref="B16" location="'Other_t6_noHPP'!A1" display="Other_t6_noHPP"/>
-    <hyperlink ref="B17" location="'Other_t5_HPP'!A1" display="Other_t5_HPP"/>
-    <hyperlink ref="B18" location="'Other_t6_HPP'!A1" display="Other_t6_HPP"/>
+    <hyperlink ref="B2" location="'Sum'!A1" display="Sum" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" location="'Actives_t1'!A1" display="Actives_t1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" location="'Actives_t2'!A1" display="Actives_t2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B5" location="'Actives_t3'!A1" display="Actives_t3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B6" location="'Actives_t4'!A1" display="Actives_t4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B7" location="'Actives_t5_noHPP'!A1" display="Actives_t5_noHPP" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B8" location="'Actives_t6_noHPP'!A1" display="Actives_t6_noHPP" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B9" location="'Actives_t5_HPP'!A1" display="Actives_t5_HPP" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B10" location="'Actives_t6_HPP'!A1" display="Actives_t6_HPP" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B11" location="'Other_t1'!A1" display="Other_t1" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B12" location="'Other_t2'!A1" display="Other_t2" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B13" location="'Other_t3'!A1" display="Other_t3" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B14" location="'Other_t4'!A1" display="Other_t4" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B15" location="'Other_t5_noHPP'!A1" display="Other_t5_noHPP" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B16" location="'Other_t6_noHPP'!A1" display="Other_t6_noHPP" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B17" location="'Other_t5_HPP'!A1" display="Other_t5_HPP" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B18" location="'Other_t6_HPP'!A1" display="Other_t6_HPP" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1783,7 +1784,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:M76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4050,14 +4051,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4217,14 +4218,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:I82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6154,14 +6155,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6548,7 +6549,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6556,10 +6557,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -7662,14 +7663,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9015,18 +9016,18 @@
     <row r="34" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D87"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10189,14 +10190,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L91"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -13562,14 +13563,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F88"/>
   <sheetViews>
     <sheetView topLeftCell="A55" workbookViewId="0">
@@ -14765,14 +14766,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:M102"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -18607,7 +18608,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -18615,7 +18616,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19587,7 +19588,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
